--- a/ja/releases/nablarch5u17-releasenote.xlsx
+++ b/ja/releases/nablarch5u17-releasenote.xlsx
@@ -1,72 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA864B01-D45A-4610-B127-7B338E55D703}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C760E52-3CA1-4C81-AABD-769F0B3D58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u17" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
+    <sheet name="5u17" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u17'!$A$1:$O$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u17'!$4:$5</definedName>
-    <definedName name="Z_0EF4A104_C8C5_4BB8_9459_A34A36EE0DB2_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$A$1:$O$7</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$A$1:$M$7</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$C$6:$M$7</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$A$1:$O$7</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$E$1:$E$7</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$E$1:$E$7</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$A$1:$O$7</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_7E72A7FA_5272_4028_BF60_AC28CB0FDCEF_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$E$1:$E$7</definedName>
-    <definedName name="Z_97E28DB9_53A7_48FD_8211_F8091EFD672D_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$E$1:$E$7</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$A$1:$O$7</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_AEBFA514_5783_483E_9999_1A19A29D6033_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_B0F4C8B8_30A7_47A3_9D99_1B2817E1C261_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$5</definedName>
-    <definedName name="Z_B411F40C_A56F_482D_B60C_F67E5DEF671D_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u17'!$C$6:$M$7</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u17'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_E48E441D_FA69_4C3B_8C53_088671C9AB11_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_EA0083FB_5437_48A3_9D11_4029C7E5B1F9_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$6:$O$7</definedName>
-    <definedName name="Z_F9C6D7B5_0301_4534_A6AE_FF0B6DC60A9A_.wvu.FilterData" localSheetId="1" hidden="1">'5u17'!$A$5:$O$7</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u17'!$A$1:$O$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u17'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,25 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -101,237 +44,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>リリース
@@ -339,14 +66,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -356,22 +83,22 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク</t>
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -382,7 +109,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>FBシステム
@@ -391,7 +118,7 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>システムへの
@@ -403,7 +130,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -419,51 +146,51 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>JIRA
 (※5)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>-</t>
@@ -473,18 +200,18 @@
   </si>
   <si>
     <t>■Nablarch 5u17 リリースノート</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>5u16からの変更点を記載しています。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CSRF対策</t>
     <rPh sb="4" eb="6">
       <t>タイサク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CSRF対策機能を追加</t>
@@ -497,11 +224,11 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-355</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u17に書き換える</t>
@@ -514,17 +241,17 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u17/doc/application_framework/application_framework/handlers/web/csrf_token_verification_handler.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.7.0
 nablarch-fw-web-tag 1.2.0
 nablarch-example-web 5u17</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">CSRF対策機能を追加しました。
@@ -532,35 +259,19 @@
 データベースを使用した二重サブミット防止機能を使用する場合は、CSRF対策に本機能を使用してください。セッションを使用した二重サブミット防止機能を使っている場合は、そのままでもCSRF対策の効果があるので、移行しなくても問題はありません。
 本機能を使用するようにExampleのウェブアプリケーションも変更しています。
 </t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -885,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -897,7 +608,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,156 +696,168 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1145,27 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2186,369 +1888,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -2563,9 +1902,9 @@
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="23" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -2575,805 +1914,805 @@
     <col min="12" max="13" width="24.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.375" style="41" customWidth="1"/>
+    <col min="16" max="17" width="9.375" style="38" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:126" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:126" s="9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="AP3" s="10"/>
-      <c r="DV3" s="11"/>
+    <row r="1" spans="1:126" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:126" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="1:126" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="AP3" s="7"/>
+      <c r="DV3" s="8"/>
     </row>
     <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="53" t="s">
+      <c r="O4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:126" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="B6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:126" s="9" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36">
         <v>1</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="28"/>
+      <c r="D7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="1:126" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:126" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="41"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="41"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="41"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="41"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="41"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:O7" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -3384,6 +2723,11 @@
     <sortCondition ref="E7"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -3392,13 +2736,8 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -3408,9 +2747,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -3419,97 +2758,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="3.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="3.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>72</v>
+      <c r="A1" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="C5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
